--- a/workshop/R code/01 session/SimData.xlsx
+++ b/workshop/R code/01 session/SimData.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="166" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.000_);\(0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +56,30 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,11 +102,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -91,13 +143,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,9 +157,49 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -450,26 +542,30 @@
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" s="10"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="7">
         <v>2014</v>
       </c>
@@ -486,7 +582,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>2014.125</v>
       </c>
@@ -503,7 +599,7 @@
         <v>505625</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>2014.25</v>
       </c>
@@ -520,7 +616,7 @@
         <v>511230</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="7">
         <v>2014.375</v>
       </c>
@@ -537,7 +633,7 @@
         <v>516816</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>2014.5</v>
       </c>
@@ -554,7 +650,7 @@
         <v>522383</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>2014.625</v>
       </c>
@@ -571,7 +667,7 @@
         <v>527930</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="7">
         <v>2014.75</v>
       </c>
@@ -587,8 +683,10 @@
       <c r="E8" s="6">
         <v>533457</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="7">
         <v>2014.875</v>
       </c>
@@ -604,8 +702,10 @@
       <c r="E9" s="6">
         <v>538966</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="7">
         <v>2015</v>
       </c>
@@ -621,8 +721,10 @@
       <c r="E10" s="6">
         <v>544455</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <v>2015.125</v>
       </c>
@@ -638,8 +740,10 @@
       <c r="E11" s="6">
         <v>549925</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="7">
         <v>2015.25</v>
       </c>
@@ -655,8 +759,10 @@
       <c r="E12" s="6">
         <v>555376</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="7">
         <v>2015.375</v>
       </c>
@@ -673,7 +779,7 @@
         <v>560808</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <v>2015.5</v>
       </c>
@@ -690,7 +796,7 @@
         <v>566222</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15" s="7">
         <v>2015.625</v>
       </c>
@@ -707,7 +813,7 @@
         <v>571616</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16" s="7">
         <v>2015.75</v>
       </c>
@@ -5384,6 +5490,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/workshop/R code/01 session/SimData.xlsx
+++ b/workshop/R code/01 session/SimData.xlsx
@@ -42,8 +42,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="0.000_);\(0.000\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.000_);\(0.000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,16 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,12 +156,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -529,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -542,4949 +530,4935 @@
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
         <v>2014</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1000000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1500000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>2000000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7">
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
         <v>2014.125</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>1004170</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1500830</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1997500</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>505625</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
         <v>2014.25</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1008320</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1501700</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1995020</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>511230</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
         <v>2014.375</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1012460</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1502590</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1992550</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>516816</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
         <v>2014.5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>1016580</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1503520</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1990100</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>522383</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
         <v>2014.625</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>1020690</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1504470</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>1987670</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>527930</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
         <v>2014.75</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>1024790</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>1505450</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>1985250</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>533457</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
         <v>2014.875</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>1028870</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1506470</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>1982850</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>538966</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
         <v>2015</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>1032940</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>1507510</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>1980470</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>544455</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
         <v>2015.125</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>1036990</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>1508580</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>1978110</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>549925</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
         <v>2015.25</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>1041040</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>1509680</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>1975760</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>555376</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
         <v>2015.375</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>1045070</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>1510800</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>1973430</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>560808</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7">
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
         <v>2015.5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>1049080</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1511960</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1971110</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>566222</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
         <v>2015.625</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1053090</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>1513140</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>1968820</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>571616</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7">
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
         <v>2015.75</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>1057080</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>1514350</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1966540</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>576992</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>2015.875</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>1061060</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1515590</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1964280</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>582349</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>2016</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1065020</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>1516850</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>1962040</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>587688</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>2016.125</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>1068970</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>1518140</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>1959810</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>593008</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>2016.25</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>1072920</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>1519460</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>1957600</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>598309</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>2016.375</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>1076850</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>1520800</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>1955410</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>603592</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>2016.5</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>1080760</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>1522170</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>1953240</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>608858</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>2016.625</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>1084670</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>1523570</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>1951080</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>614104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>2016.75</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>1088570</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>1524990</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>1948940</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>619333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>2016.875</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>1092450</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>1526440</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>1946830</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>624544</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>2017</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>1096320</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>1527910</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>1944720</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>629736</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>2017.125</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>1100180</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>1529400</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>1942640</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>634911</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>2017.25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>1104030</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>1530930</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>1940570</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>640068</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>2017.375</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>1107870</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>1532470</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>1938520</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>645207</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>2017.5</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>1111700</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>1534040</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>1936490</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>650329</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>2017.625</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>1115510</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>1535640</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>1934480</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>655433</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>2017.75</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>1119320</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>1537250</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>1932490</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>660519</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>2017.875</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>1123120</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>1538890</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>1930510</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>665588</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>2018</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>1126900</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1540560</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>1928550</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>670640</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>2018.125</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>1130680</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>1542250</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>1926610</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>675674</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>2018.25</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>1134440</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>1543960</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>1924690</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>680692</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>2018.375</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>1138200</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>1545690</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>1922790</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>685692</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>2018.5</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>1141950</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>1547450</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>1920900</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>690675</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>2018.625</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>1145680</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>1549230</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>1919040</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>695641</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>2018.75</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>1149410</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>1551030</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>1917190</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>700590</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>2018.875</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>1153130</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>1552850</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>1915360</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>705523</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>2019</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>1156830</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>1554700</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>1913540</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>710439</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>2019.125</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>1160530</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>1556560</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>1911750</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>715338</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>2019.25</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>1164220</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>1558450</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>1909970</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>720220</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>2019.375</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>1167900</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>1560360</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>1908220</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>725086</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>2019.5</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>1171570</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>1562290</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>1906480</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="4">
         <v>729936</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>2019.625</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>1175240</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>1564240</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>1904760</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>734770</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>2019.75</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>1178890</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>1566220</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>1903050</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>739587</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>2019.875</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>1182540</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>1568210</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>1901370</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="4">
         <v>744388</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>2020</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>1186170</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>1570220</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>1899700</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <v>749173</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>2020.125</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>1189800</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>1572260</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>1898060</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>753942</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>2020.25</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>1193420</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>1574310</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>1896430</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>758694</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>2020.375</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>1197030</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>1576380</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>1894820</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>763432</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>2020.5</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>1200640</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>1578480</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>1893220</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <v>768153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>2020.625</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>1204230</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>1580590</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>1891650</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>772859</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>2020.75</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>1207820</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>1582720</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>1890090</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <v>777549</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>2020.875</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>1211400</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>1584870</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>1888560</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>782223</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>2021</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>1214970</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>1587050</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>1887040</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>786882</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>2021.125</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="4">
         <v>1218540</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>1589230</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>1885540</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <v>791526</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>2021.25</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="4">
         <v>1222100</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>1591440</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>1884060</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="4">
         <v>796155</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>2021.375</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>1225650</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>1593670</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>1882590</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="4">
         <v>800768</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>2021.5</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="4">
         <v>1229190</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="4">
         <v>1595920</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>1881150</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="4">
         <v>805366</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>2021.625</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>1232730</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>1598180</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>1879720</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <v>809949</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>2021.75</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="4">
         <v>1236250</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>1600460</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>1878320</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="4">
         <v>814517</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>2021.875</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="4">
         <v>1239780</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="4">
         <v>1602760</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>1876930</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="4">
         <v>819070</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>2022</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="4">
         <v>1243290</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>1605080</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>1875560</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="4">
         <v>823609</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>2022.125</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="4">
         <v>1246800</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="4">
         <v>1607410</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>1874200</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="4">
         <v>828133</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>2022.25</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="4">
         <v>1250300</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="4">
         <v>1609770</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>1872870</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <v>832642</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>2022.375</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="4">
         <v>1253800</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="4">
         <v>1612140</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>1871550</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="4">
         <v>837136</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>2022.5</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="4">
         <v>1257280</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="4">
         <v>1614520</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>1870260</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="4">
         <v>841616</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>2022.625</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="4">
         <v>1260770</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>1616930</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>1868980</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="4">
         <v>846082</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>2022.75</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="4">
         <v>1264240</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="4">
         <v>1619350</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>1867720</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="4">
         <v>850533</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>2022.875</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="4">
         <v>1267710</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="4">
         <v>1621790</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>1866480</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="4">
         <v>854970</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>2023</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="4">
         <v>1271170</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="4">
         <v>1624240</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>1865250</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="4">
         <v>859393</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>2023.125</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="4">
         <v>1274630</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="4">
         <v>1626720</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>1864050</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <v>863801</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>2023.25</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="4">
         <v>1278080</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="4">
         <v>1629200</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>1862860</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <v>868196</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>2023.375</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="4">
         <v>1281530</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="4">
         <v>1631710</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>1861690</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="4">
         <v>872577</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>2023.5</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="4">
         <v>1284970</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="4">
         <v>1634230</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>1860540</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="4">
         <v>876944</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>2023.625</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4">
         <v>1288400</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>1636770</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>1859410</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="4">
         <v>881297</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>2023.75</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="4">
         <v>1291830</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>1639320</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>1858300</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="4">
         <v>885636</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>2023.875</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="4">
         <v>1295250</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>1641890</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>1857200</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="4">
         <v>889962</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>2024</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="4">
         <v>1298670</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>1644470</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>1856130</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="4">
         <v>894274</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>2024.125</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="4">
         <v>1302080</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>1647070</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>1855070</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="4">
         <v>898573</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>2024.25</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="4">
         <v>1305480</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>1649690</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>1854030</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="4">
         <v>902858</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>2024.375</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="4">
         <v>1308890</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>1652320</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>1853010</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="4">
         <v>907131</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="7">
+      <c r="A86" s="5">
         <v>2024.5</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="4">
         <v>1312280</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="4">
         <v>1654960</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>1852000</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="4">
         <v>911389</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7">
+      <c r="A87" s="5">
         <v>2024.625</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="4">
         <v>1315670</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="4">
         <v>1657630</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>1851020</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="4">
         <v>915635</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7">
+      <c r="A88" s="5">
         <v>2024.75</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="4">
         <v>1319060</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>1660300</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>1850050</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="4">
         <v>919868</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="7">
+      <c r="A89" s="5">
         <v>2024.875</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="4">
         <v>1322440</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>1662990</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>1849100</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="4">
         <v>924087</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="7">
+      <c r="A90" s="5">
         <v>2025</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="4">
         <v>1325820</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>1665700</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>1848170</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="4">
         <v>928294</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="7">
+      <c r="A91" s="5">
         <v>2025.125</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="4">
         <v>1329190</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>1668420</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <v>1847260</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="4">
         <v>932488</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="7">
+      <c r="A92" s="5">
         <v>2025.25</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="4">
         <v>1332550</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>1671150</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <v>1846370</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="4">
         <v>936669</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="7">
+      <c r="A93" s="5">
         <v>2025.375</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="4">
         <v>1335920</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>1673900</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="4">
         <v>1845490</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="4">
         <v>940838</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="7">
+      <c r="A94" s="5">
         <v>2025.5</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="4">
         <v>1339270</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>1676660</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <v>1844630</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="4">
         <v>944993</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="7">
+      <c r="A95" s="5">
         <v>2025.625</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="4">
         <v>1342630</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>1679440</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="4">
         <v>1843790</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="4">
         <v>949137</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="7">
+      <c r="A96" s="5">
         <v>2025.75</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="4">
         <v>1345980</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>1682230</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="4">
         <v>1842970</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="4">
         <v>953267</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="7">
+      <c r="A97" s="5">
         <v>2025.875</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="4">
         <v>1349320</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>1685040</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>1842170</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="4">
         <v>957386</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="7">
+      <c r="A98" s="5">
         <v>2026</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="4">
         <v>1352660</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>1687860</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <v>1841380</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="4">
         <v>961492</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="7">
+      <c r="A99" s="5">
         <v>2026.125</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="4">
         <v>1356000</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>1690690</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <v>1840610</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="4">
         <v>965586</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="7">
+      <c r="A100" s="5">
         <v>2026.25</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="4">
         <v>1359330</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>1693540</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="4">
         <v>1839860</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="4">
         <v>969668</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="7">
+      <c r="A101" s="5">
         <v>2026.375</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="4">
         <v>1362660</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>1696400</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <v>1839130</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="4">
         <v>973738</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="7">
+      <c r="A102" s="5">
         <v>2026.5</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="4">
         <v>1365980</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>1699270</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <v>1838420</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="4">
         <v>977795</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="7">
+      <c r="A103" s="5">
         <v>2026.625</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="4">
         <v>1369300</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>1702160</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <v>1837720</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="4">
         <v>981841</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="7">
+      <c r="A104" s="5">
         <v>2026.75</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="4">
         <v>1372620</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>1705060</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="4">
         <v>1837040</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="4">
         <v>985875</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="7">
+      <c r="A105" s="5">
         <v>2026.875</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="4">
         <v>1375930</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="4">
         <v>1707970</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="4">
         <v>1836380</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="4">
         <v>989897</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="7">
+      <c r="A106" s="5">
         <v>2027</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="4">
         <v>1379240</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="4">
         <v>1710900</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="4">
         <v>1835740</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="4">
         <v>993908</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="7">
+      <c r="A107" s="5">
         <v>2027.125</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="4">
         <v>1382550</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="4">
         <v>1713840</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="4">
         <v>1835120</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="4">
         <v>997907</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="7">
+      <c r="A108" s="5">
         <v>2027.25</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="4">
         <v>1385850</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="4">
         <v>1716790</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="4">
         <v>1834510</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="4">
         <v>1001890</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="7">
+      <c r="A109" s="5">
         <v>2027.375</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="4">
         <v>1389150</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="4">
         <v>1719750</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="4">
         <v>1833920</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="4">
         <v>1005870</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="7">
+      <c r="A110" s="5">
         <v>2027.5</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="4">
         <v>1392440</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="4">
         <v>1722730</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="4">
         <v>1833350</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="4">
         <v>1009830</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="7">
+      <c r="A111" s="5">
         <v>2027.625</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="4">
         <v>1395740</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="4">
         <v>1725720</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="4">
         <v>1832800</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="4">
         <v>1013790</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="7">
+      <c r="A112" s="5">
         <v>2027.75</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="4">
         <v>1399030</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="4">
         <v>1728720</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="4">
         <v>1832260</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="4">
         <v>1017730</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="7">
+      <c r="A113" s="5">
         <v>2027.875</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="4">
         <v>1402310</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="4">
         <v>1731740</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="4">
         <v>1831750</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="4">
         <v>1021660</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="7">
+      <c r="A114" s="5">
         <v>2028</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="4">
         <v>1405590</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="4">
         <v>1734760</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="4">
         <v>1831250</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="4">
         <v>1025580</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="7">
+      <c r="A115" s="5">
         <v>2028.125</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="4">
         <v>1408870</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
         <v>1737800</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="4">
         <v>1830760</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="4">
         <v>1029490</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="7">
+      <c r="A116" s="5">
         <v>2028.25</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="4">
         <v>1412150</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="4">
         <v>1740860</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="4">
         <v>1830300</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="4">
         <v>1033390</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="7">
+      <c r="A117" s="5">
         <v>2028.375</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="4">
         <v>1415420</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="4">
         <v>1743920</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="4">
         <v>1829850</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="4">
         <v>1037270</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="7">
+      <c r="A118" s="5">
         <v>2028.5</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="4">
         <v>1418700</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="4">
         <v>1747000</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="4">
         <v>1829420</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="4">
         <v>1041150</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="7">
+      <c r="A119" s="5">
         <v>2028.625</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="4">
         <v>1421960</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="4">
         <v>1750080</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="4">
         <v>1829010</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="4">
         <v>1045010</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="7">
+      <c r="A120" s="5">
         <v>2028.75</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="4">
         <v>1425230</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>1753180</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="4">
         <v>1828620</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="4">
         <v>1048870</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="7">
+      <c r="A121" s="5">
         <v>2028.875</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="4">
         <v>1428490</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>1756290</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="4">
         <v>1828240</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="4">
         <v>1052710</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="7">
+      <c r="A122" s="5">
         <v>2029</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="4">
         <v>1431750</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>1759420</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="4">
         <v>1827880</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="4">
         <v>1056550</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="7">
+      <c r="A123" s="5">
         <v>2029.125</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="4">
         <v>1435010</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="4">
         <v>1762550</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="4">
         <v>1827540</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="4">
         <v>1060370</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="7">
+      <c r="A124" s="5">
         <v>2029.25</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="4">
         <v>1438270</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="4">
         <v>1765700</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="4">
         <v>1827210</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="4">
         <v>1064180</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="7">
+      <c r="A125" s="5">
         <v>2029.375</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="4">
         <v>1441520</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="4">
         <v>1768850</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="4">
         <v>1826900</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="4">
         <v>1067990</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="7">
+      <c r="A126" s="5">
         <v>2029.5</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="4">
         <v>1444770</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="4">
         <v>1772020</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="4">
         <v>1826610</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="4">
         <v>1071780</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="7">
+      <c r="A127" s="5">
         <v>2029.625</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="4">
         <v>1448020</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="4">
         <v>1775200</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="4">
         <v>1826340</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="4">
         <v>1075560</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="7">
+      <c r="A128" s="5">
         <v>2029.75</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="4">
         <v>1451260</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="4">
         <v>1778390</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="4">
         <v>1826080</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="4">
         <v>1079330</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="7">
+      <c r="A129" s="5">
         <v>2029.875</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="4">
         <v>1454510</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="4">
         <v>1781590</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="4">
         <v>1825850</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="4">
         <v>1083100</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="7">
+      <c r="A130" s="5">
         <v>2030</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="4">
         <v>1457750</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="4">
         <v>1784810</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="4">
         <v>1825620</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="4">
         <v>1086850</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="7">
+      <c r="A131" s="5">
         <v>2030.125</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="4">
         <v>1460990</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="4">
         <v>1788030</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="4">
         <v>1825420</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="4">
         <v>1090590</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="7">
+      <c r="A132" s="5">
         <v>2030.25</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="4">
         <v>1464230</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="4">
         <v>1791260</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="4">
         <v>1825230</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="4">
         <v>1094320</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="7">
+      <c r="A133" s="5">
         <v>2030.375</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="4">
         <v>1467460</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="4">
         <v>1794510</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="4">
         <v>1825060</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="4">
         <v>1098050</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="7">
+      <c r="A134" s="5">
         <v>2030.5</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="4">
         <v>1470700</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="4">
         <v>1797770</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="4">
         <v>1824910</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="4">
         <v>1101760</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="7">
+      <c r="A135" s="5">
         <v>2030.625</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="4">
         <v>1473930</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="4">
         <v>1801030</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="4">
         <v>1824780</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="4">
         <v>1105460</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="7">
+      <c r="A136" s="5">
         <v>2030.75</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="4">
         <v>1477160</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="4">
         <v>1804310</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="4">
         <v>1824660</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="4">
         <v>1109160</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="7">
+      <c r="A137" s="5">
         <v>2030.875</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="4">
         <v>1480390</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="4">
         <v>1807600</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="4">
         <v>1824560</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="4">
         <v>1112840</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="7">
+      <c r="A138" s="5">
         <v>2031</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="4">
         <v>1483610</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="4">
         <v>1810900</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="4">
         <v>1824470</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="4">
         <v>1116520</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="7">
+      <c r="A139" s="5">
         <v>2031.125</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="4">
         <v>1486840</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="4">
         <v>1814210</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="4">
         <v>1824400</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="4">
         <v>1120180</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="7">
+      <c r="A140" s="5">
         <v>2031.25</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="4">
         <v>1490060</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="4">
         <v>1817530</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="4">
         <v>1824350</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="4">
         <v>1123840</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="7">
+      <c r="A141" s="5">
         <v>2031.375</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="4">
         <v>1493280</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="4">
         <v>1820860</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="4">
         <v>1824320</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="4">
         <v>1127490</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="7">
+      <c r="A142" s="5">
         <v>2031.5</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="4">
         <v>1496510</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="4">
         <v>1824200</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="4">
         <v>1824300</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="4">
         <v>1131130</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="7">
+      <c r="A143" s="5">
         <v>2031.625</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="4">
         <v>1499720</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="4">
         <v>1827550</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="4">
         <v>1824300</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="4">
         <v>1134760</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="7">
+      <c r="A144" s="5">
         <v>2031.75</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="4">
         <v>1502940</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="4">
         <v>1830900</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="4">
         <v>1824320</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="4">
         <v>1138380</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="7">
+      <c r="A145" s="5">
         <v>2031.875</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="4">
         <v>1506160</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="4">
         <v>1834280</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="4">
         <v>1824350</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="4">
         <v>1141990</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="7">
+      <c r="A146" s="5">
         <v>2032</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="4">
         <v>1509380</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="4">
         <v>1837660</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="4">
         <v>1824400</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="4">
         <v>1145590</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="7">
+      <c r="A147" s="5">
         <v>2032.125</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="4">
         <v>1512590</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="4">
         <v>1841040</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="4">
         <v>1824460</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="4">
         <v>1149190</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="7">
+      <c r="A148" s="5">
         <v>2032.25</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="4">
         <v>1515800</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="4">
         <v>1844440</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="4">
         <v>1824550</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="4">
         <v>1152770</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="7">
+      <c r="A149" s="5">
         <v>2032.375</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="4">
         <v>1519020</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="4">
         <v>1847850</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="4">
         <v>1824650</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="4">
         <v>1156350</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="7">
+      <c r="A150" s="5">
         <v>2032.5</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="4">
         <v>1522230</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="4">
         <v>1851270</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="4">
         <v>1824760</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="4">
         <v>1159920</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="7">
+      <c r="A151" s="5">
         <v>2032.625</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="4">
         <v>1525440</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="4">
         <v>1854700</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="4">
         <v>1824900</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="4">
         <v>1163480</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="7">
+      <c r="A152" s="5">
         <v>2032.75</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="4">
         <v>1528650</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="4">
         <v>1858140</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="4">
         <v>1825040</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="4">
         <v>1167030</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="7">
+      <c r="A153" s="5">
         <v>2032.875</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="4">
         <v>1531850</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="4">
         <v>1861590</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="4">
         <v>1825210</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="4">
         <v>1170580</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="7">
+      <c r="A154" s="5">
         <v>2033</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="4">
         <v>1535060</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="4">
         <v>1865050</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="4">
         <v>1825390</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="4">
         <v>1174110</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="7">
+      <c r="A155" s="5">
         <v>2033.125</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="4">
         <v>1538270</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="4">
         <v>1868510</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="4">
         <v>1825590</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="4">
         <v>1177640</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="7">
+      <c r="A156" s="5">
         <v>2033.25</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="4">
         <v>1541470</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="4">
         <v>1871990</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="4">
         <v>1825800</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="4">
         <v>1181160</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="7">
+      <c r="A157" s="5">
         <v>2033.375</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="4">
         <v>1544680</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="4">
         <v>1875480</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="4">
         <v>1826040</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="4">
         <v>1184670</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="7">
+      <c r="A158" s="5">
         <v>2033.5</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="4">
         <v>1547890</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="4">
         <v>1878970</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="4">
         <v>1826280</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="4">
         <v>1188170</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="7">
+      <c r="A159" s="5">
         <v>2033.625</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="4">
         <v>1551090</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="4">
         <v>1882470</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="4">
         <v>1826550</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="4">
         <v>1191670</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="7">
+      <c r="A160" s="5">
         <v>2033.75</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="4">
         <v>1554290</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="4">
         <v>1885990</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="4">
         <v>1826830</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="4">
         <v>1195160</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="7">
+      <c r="A161" s="5">
         <v>2033.875</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="4">
         <v>1557500</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="4">
         <v>1889510</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="4">
         <v>1827120</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="4">
         <v>1198640</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="7">
+      <c r="A162" s="5">
         <v>2034</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="4">
         <v>1560700</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="4">
         <v>1893040</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="4">
         <v>1827430</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="4">
         <v>1202110</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="7">
+      <c r="A163" s="5">
         <v>2034.125</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="4">
         <v>1563900</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="4">
         <v>1896580</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="4">
         <v>1827760</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="4">
         <v>1205570</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="7">
+      <c r="A164" s="5">
         <v>2034.25</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="4">
         <v>1567100</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="4">
         <v>1900130</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="4">
         <v>1828110</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="4">
         <v>1209030</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="7">
+      <c r="A165" s="5">
         <v>2034.375</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="4">
         <v>1570310</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="4">
         <v>1903690</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="4">
         <v>1828470</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="4">
         <v>1212480</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="7">
+      <c r="A166" s="5">
         <v>2034.5</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="4">
         <v>1573510</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="4">
         <v>1907260</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="4">
         <v>1828840</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="4">
         <v>1215920</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="7">
+      <c r="A167" s="5">
         <v>2034.625</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="4">
         <v>1576710</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="4">
         <v>1910830</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="4">
         <v>1829230</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="4">
         <v>1219350</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="7">
+      <c r="A168" s="5">
         <v>2034.75</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="4">
         <v>1579910</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>1914420</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="4">
         <v>1829640</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="4">
         <v>1222780</v>
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="7">
+      <c r="A169" s="5">
         <v>2034.875</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="4">
         <v>1583110</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="4">
         <v>1918010</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="4">
         <v>1830070</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="4">
         <v>1226200</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="7">
+      <c r="A170" s="5">
         <v>2035</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="4">
         <v>1586310</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="4">
         <v>1921620</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="4">
         <v>1830510</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="4">
         <v>1229610</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="7">
+      <c r="A171" s="5">
         <v>2035.125</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="4">
         <v>1589510</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="4">
         <v>1925230</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="4">
         <v>1830960</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="4">
         <v>1233020</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="7">
+      <c r="A172" s="5">
         <v>2035.25</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="4">
         <v>1592710</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="4">
         <v>1928850</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="4">
         <v>1831430</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="4">
         <v>1236420</v>
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="7">
+      <c r="A173" s="5">
         <v>2035.375</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="4">
         <v>1595910</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="4">
         <v>1932470</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="4">
         <v>1831920</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="4">
         <v>1239810</v>
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="7">
+      <c r="A174" s="5">
         <v>2035.5</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="4">
         <v>1599110</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="4">
         <v>1936110</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="4">
         <v>1832420</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="4">
         <v>1243190</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="7">
+      <c r="A175" s="5">
         <v>2035.625</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="4">
         <v>1602320</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="4">
         <v>1939760</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="4">
         <v>1832940</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="4">
         <v>1246570</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="7">
+      <c r="A176" s="5">
         <v>2035.75</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="4">
         <v>1605520</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="4">
         <v>1943410</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="4">
         <v>1833480</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="4">
         <v>1249940</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="7">
+      <c r="A177" s="5">
         <v>2035.875</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="4">
         <v>1608720</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="4">
         <v>1947070</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="4">
         <v>1834020</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="4">
         <v>1253310</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="7">
+      <c r="A178" s="5">
         <v>2036</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="4">
         <v>1611920</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="4">
         <v>1950740</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="4">
         <v>1834590</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="4">
         <v>1256660</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="7">
+      <c r="A179" s="5">
         <v>2036.125</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="4">
         <v>1615120</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="4">
         <v>1954420</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="4">
         <v>1835170</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="4">
         <v>1260010</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="7">
+      <c r="A180" s="5">
         <v>2036.25</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="4">
         <v>1618320</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="4">
         <v>1958110</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="4">
         <v>1835770</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="4">
         <v>1263360</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="7">
+      <c r="A181" s="5">
         <v>2036.375</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="4">
         <v>1621530</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="4">
         <v>1961810</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="4">
         <v>1836380</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="4">
         <v>1266700</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="7">
+      <c r="A182" s="5">
         <v>2036.5</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="4">
         <v>1624730</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="4">
         <v>1965510</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="4">
         <v>1837010</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="4">
         <v>1270030</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="7">
+      <c r="A183" s="5">
         <v>2036.625</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="4">
         <v>1627930</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="4">
         <v>1969220</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="4">
         <v>1837650</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="4">
         <v>1273350</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="7">
+      <c r="A184" s="5">
         <v>2036.75</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="4">
         <v>1631140</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="4">
         <v>1972940</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="4">
         <v>1838310</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="4">
         <v>1276670</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="7">
+      <c r="A185" s="5">
         <v>2036.875</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="4">
         <v>1634340</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="4">
         <v>1976670</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="4">
         <v>1838980</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="4">
         <v>1279980</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="7">
+      <c r="A186" s="5">
         <v>2037</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="4">
         <v>1637550</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="4">
         <v>1980410</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="4">
         <v>1839670</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="4">
         <v>1283290</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="7">
+      <c r="A187" s="5">
         <v>2037.125</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="4">
         <v>1640760</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="4">
         <v>1984150</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="4">
         <v>1840370</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="4">
         <v>1286590</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="7">
+      <c r="A188" s="5">
         <v>2037.25</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="4">
         <v>1643960</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="4">
         <v>1987900</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="4">
         <v>1841090</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="4">
         <v>1289880</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="7">
+      <c r="A189" s="5">
         <v>2037.375</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="4">
         <v>1647170</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="4">
         <v>1991660</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="4">
         <v>1841820</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="4">
         <v>1293170</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="7">
+      <c r="A190" s="5">
         <v>2037.5</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="4">
         <v>1650380</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="4">
         <v>1995430</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="4">
         <v>1842570</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="4">
         <v>1296450</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="7">
+      <c r="A191" s="5">
         <v>2037.625</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="4">
         <v>1653590</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="4">
         <v>1999210</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="4">
         <v>1843340</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="4">
         <v>1299730</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="7">
+      <c r="A192" s="5">
         <v>2037.75</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B192" s="4">
         <v>1656800</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="4">
         <v>2002990</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="4">
         <v>1844120</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="4">
         <v>1303000</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="7">
+      <c r="A193" s="5">
         <v>2037.875</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="4">
         <v>1660010</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="4">
         <v>2006780</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="4">
         <v>1844910</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="4">
         <v>1306260</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="7">
+      <c r="A194" s="5">
         <v>2038</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="4">
         <v>1663220</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="4">
         <v>2010580</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="4">
         <v>1845720</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="4">
         <v>1309520</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="7">
+      <c r="A195" s="5">
         <v>2038.125</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="4">
         <v>1666430</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="4">
         <v>2014390</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="4">
         <v>1846550</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="4">
         <v>1312780</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="7">
+      <c r="A196" s="5">
         <v>2038.25</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B196" s="4">
         <v>1669640</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="4">
         <v>2018200</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D196" s="4">
         <v>1847380</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="4">
         <v>1316020</v>
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="7">
+      <c r="A197" s="5">
         <v>2038.375</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="4">
         <v>1672860</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="4">
         <v>2022030</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D197" s="4">
         <v>1848240</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="4">
         <v>1319270</v>
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="7">
+      <c r="A198" s="5">
         <v>2038.5</v>
       </c>
-      <c r="B198" s="6">
+      <c r="B198" s="4">
         <v>1676070</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="4">
         <v>2025860</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D198" s="4">
         <v>1849110</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="4">
         <v>1322500</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="7">
+      <c r="A199" s="5">
         <v>2038.625</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="4">
         <v>1679290</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="4">
         <v>2029690</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="4">
         <v>1849990</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="4">
         <v>1325730</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="7">
+      <c r="A200" s="5">
         <v>2038.75</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="4">
         <v>1682510</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="4">
         <v>2033540</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="4">
         <v>1850890</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="4">
         <v>1328960</v>
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="7">
+      <c r="A201" s="5">
         <v>2038.875</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="4">
         <v>1685730</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="4">
         <v>2037390</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="4">
         <v>1851800</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="4">
         <v>1332180</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="7">
+      <c r="A202" s="5">
         <v>2039</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="4">
         <v>1688950</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="4">
         <v>2041250</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="4">
         <v>1852730</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="4">
         <v>1335400</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="7">
+      <c r="A203" s="5">
         <v>2039.125</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="4">
         <v>1692170</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="4">
         <v>2045120</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D203" s="4">
         <v>1853670</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="4">
         <v>1338610</v>
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="7">
+      <c r="A204" s="5">
         <v>2039.25</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="4">
         <v>1695390</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="4">
         <v>2049000</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D204" s="4">
         <v>1854630</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="4">
         <v>1341810</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="7">
+      <c r="A205" s="5">
         <v>2039.375</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="4">
         <v>1698620</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="4">
         <v>2052880</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D205" s="4">
         <v>1855600</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="4">
         <v>1345010</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="7">
+      <c r="A206" s="5">
         <v>2039.5</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="4">
         <v>1701840</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="4">
         <v>2056770</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="4">
         <v>1856590</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="4">
         <v>1348210</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="7">
+      <c r="A207" s="5">
         <v>2039.625</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="4">
         <v>1705070</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="4">
         <v>2060670</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="4">
         <v>1857590</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="4">
         <v>1351400</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="7">
+      <c r="A208" s="5">
         <v>2039.75</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="4">
         <v>1708290</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="4">
         <v>2064580</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="4">
         <v>1858610</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="4">
         <v>1354580</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="7">
+      <c r="A209" s="5">
         <v>2039.875</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="4">
         <v>1711520</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="4">
         <v>2068490</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="4">
         <v>1859640</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="4">
         <v>1357760</v>
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="7">
+      <c r="A210" s="5">
         <v>2040</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="4">
         <v>1714750</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="4">
         <v>2072410</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="4">
         <v>1860680</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="4">
         <v>1360940</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="7">
+      <c r="A211" s="5">
         <v>2040.125</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="4">
         <v>1717990</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="4">
         <v>2076340</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="4">
         <v>1861740</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="4">
         <v>1364110</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="7">
+      <c r="A212" s="5">
         <v>2040.25</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="4">
         <v>1721220</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="4">
         <v>2080270</v>
       </c>
-      <c r="D212" s="6">
+      <c r="D212" s="4">
         <v>1862810</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="4">
         <v>1367270</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="7">
+      <c r="A213" s="5">
         <v>2040.375</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="4">
         <v>1724460</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="4">
         <v>2084210</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="4">
         <v>1863900</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="4">
         <v>1370430</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="7">
+      <c r="A214" s="5">
         <v>2040.5</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="4">
         <v>1727690</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="4">
         <v>2088160</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="4">
         <v>1865000</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="4">
         <v>1373590</v>
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="7">
+      <c r="A215" s="5">
         <v>2040.625</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="4">
         <v>1730930</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="4">
         <v>2092120</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="4">
         <v>1866120</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="4">
         <v>1376740</v>
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="7">
+      <c r="A216" s="5">
         <v>2040.75</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="4">
         <v>1734170</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="4">
         <v>2096080</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="4">
         <v>1867250</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="4">
         <v>1379890</v>
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="7">
+      <c r="A217" s="5">
         <v>2040.875</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="4">
         <v>1737410</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="4">
         <v>2100050</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="4">
         <v>1868390</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="4">
         <v>1383040</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="7">
+      <c r="A218" s="5">
         <v>2041</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="4">
         <v>1740660</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="4">
         <v>2104030</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D218" s="4">
         <v>1869550</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="4">
         <v>1386170</v>
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="7">
+      <c r="A219" s="5">
         <v>2041.125</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="4">
         <v>1743900</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="4">
         <v>2108020</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="4">
         <v>1870720</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="4">
         <v>1389310</v>
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="7">
+      <c r="A220" s="5">
         <v>2041.25</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="4">
         <v>1747150</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="4">
         <v>2112010</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="4">
         <v>1871910</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="4">
         <v>1392440</v>
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="7">
+      <c r="A221" s="5">
         <v>2041.375</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="4">
         <v>1750400</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="4">
         <v>2116010</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D221" s="4">
         <v>1873110</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="4">
         <v>1395570</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="7">
+      <c r="A222" s="5">
         <v>2041.5</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="4">
         <v>1753650</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="4">
         <v>2120020</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D222" s="4">
         <v>1874320</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="4">
         <v>1398690</v>
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="7">
+      <c r="A223" s="5">
         <v>2041.625</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="4">
         <v>1756900</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="4">
         <v>2124030</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="4">
         <v>1875550</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="4">
         <v>1401810</v>
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="7">
+      <c r="A224" s="5">
         <v>2041.75</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="4">
         <v>1760160</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="4">
         <v>2128050</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="4">
         <v>1876790</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="4">
         <v>1404920</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="7">
+      <c r="A225" s="5">
         <v>2041.875</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="4">
         <v>1763420</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="4">
         <v>2132080</v>
       </c>
-      <c r="D225" s="6">
+      <c r="D225" s="4">
         <v>1878050</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E225" s="4">
         <v>1408030</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="7">
+      <c r="A226" s="5">
         <v>2042</v>
       </c>
-      <c r="B226" s="6">
+      <c r="B226" s="4">
         <v>1766670</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="4">
         <v>2136110</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="4">
         <v>1879320</v>
       </c>
-      <c r="E226" s="6">
+      <c r="E226" s="4">
         <v>1411140</v>
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="7">
+      <c r="A227" s="5">
         <v>2042.125</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="4">
         <v>1769940</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="4">
         <v>2140160</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="4">
         <v>1880600</v>
       </c>
-      <c r="E227" s="6">
+      <c r="E227" s="4">
         <v>1414240</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="7">
+      <c r="A228" s="5">
         <v>2042.25</v>
       </c>
-      <c r="B228" s="6">
+      <c r="B228" s="4">
         <v>1773200</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="4">
         <v>2144200</v>
       </c>
-      <c r="D228" s="6">
+      <c r="D228" s="4">
         <v>1881900</v>
       </c>
-      <c r="E228" s="6">
+      <c r="E228" s="4">
         <v>1417340</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="7">
+      <c r="A229" s="5">
         <v>2042.375</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="4">
         <v>1776460</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="4">
         <v>2148260</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="4">
         <v>1883210</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="4">
         <v>1420430</v>
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="7">
+      <c r="A230" s="5">
         <v>2042.5</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B230" s="4">
         <v>1779730</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="4">
         <v>2152320</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="4">
         <v>1884540</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="4">
         <v>1423530</v>
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="7">
+      <c r="A231" s="5">
         <v>2042.625</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="4">
         <v>1783000</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="4">
         <v>2156390</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="4">
         <v>1885880</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="4">
         <v>1426610</v>
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="7">
+      <c r="A232" s="5">
         <v>2042.75</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B232" s="4">
         <v>1786270</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="4">
         <v>2160470</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="4">
         <v>1887230</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E232" s="4">
         <v>1429700</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="7">
+      <c r="A233" s="5">
         <v>2042.875</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="4">
         <v>1789540</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="4">
         <v>2164550</v>
       </c>
-      <c r="D233" s="6">
+      <c r="D233" s="4">
         <v>1888600</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="4">
         <v>1432780</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="7">
+      <c r="A234" s="5">
         <v>2043</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B234" s="4">
         <v>1792820</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="4">
         <v>2168640</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="4">
         <v>1889980</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E234" s="4">
         <v>1435850</v>
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="7">
+      <c r="A235" s="5">
         <v>2043.125</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B235" s="4">
         <v>1796100</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="4">
         <v>2172740</v>
       </c>
-      <c r="D235" s="6">
+      <c r="D235" s="4">
         <v>1891370</v>
       </c>
-      <c r="E235" s="6">
+      <c r="E235" s="4">
         <v>1438930</v>
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="7">
+      <c r="A236" s="5">
         <v>2043.25</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="4">
         <v>1799380</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="4">
         <v>2176840</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="4">
         <v>1892780</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E236" s="4">
         <v>1442000</v>
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="7">
+      <c r="A237" s="5">
         <v>2043.375</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B237" s="4">
         <v>1802660</v>
       </c>
-      <c r="C237" s="6">
+      <c r="C237" s="4">
         <v>2180950</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D237" s="4">
         <v>1894200</v>
       </c>
-      <c r="E237" s="6">
+      <c r="E237" s="4">
         <v>1445060</v>
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="7">
+      <c r="A238" s="5">
         <v>2043.5</v>
       </c>
-      <c r="B238" s="6">
+      <c r="B238" s="4">
         <v>1805950</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="4">
         <v>2185070</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D238" s="4">
         <v>1895630</v>
       </c>
-      <c r="E238" s="6">
+      <c r="E238" s="4">
         <v>1448130</v>
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="7">
+      <c r="A239" s="5">
         <v>2043.625</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="4">
         <v>1809230</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="4">
         <v>2189190</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D239" s="4">
         <v>1897080</v>
       </c>
-      <c r="E239" s="6">
+      <c r="E239" s="4">
         <v>1451190</v>
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="7">
+      <c r="A240" s="5">
         <v>2043.75</v>
       </c>
-      <c r="B240" s="6">
+      <c r="B240" s="4">
         <v>1812520</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="4">
         <v>2193330</v>
       </c>
-      <c r="D240" s="6">
+      <c r="D240" s="4">
         <v>1898540</v>
       </c>
-      <c r="E240" s="6">
+      <c r="E240" s="4">
         <v>1454250</v>
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="7">
+      <c r="A241" s="5">
         <v>2043.875</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B241" s="4">
         <v>1815820</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="4">
         <v>2197460</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="4">
         <v>1900010</v>
       </c>
-      <c r="E241" s="6">
+      <c r="E241" s="4">
         <v>1457300</v>
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="7">
+      <c r="A242" s="5">
         <v>2044</v>
       </c>
-      <c r="B242" s="6">
+      <c r="B242" s="4">
         <v>1819110</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="4">
         <v>2201610</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="4">
         <v>1901500</v>
       </c>
-      <c r="E242" s="6">
+      <c r="E242" s="4">
         <v>1460350</v>
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="7">
+      <c r="A243" s="5">
         <v>2044.125</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B243" s="4">
         <v>1822410</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="4">
         <v>2205760</v>
       </c>
-      <c r="D243" s="6">
+      <c r="D243" s="4">
         <v>1903000</v>
       </c>
-      <c r="E243" s="6">
+      <c r="E243" s="4">
         <v>1463400</v>
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="7">
+      <c r="A244" s="5">
         <v>2044.25</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="4">
         <v>1825710</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="4">
         <v>2209920</v>
       </c>
-      <c r="D244" s="6">
+      <c r="D244" s="4">
         <v>1904510</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E244" s="4">
         <v>1466440</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="7">
+      <c r="A245" s="5">
         <v>2044.375</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B245" s="4">
         <v>1829010</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="4">
         <v>2214080</v>
       </c>
-      <c r="D245" s="6">
+      <c r="D245" s="4">
         <v>1906040</v>
       </c>
-      <c r="E245" s="6">
+      <c r="E245" s="4">
         <v>1469480</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="7">
+      <c r="A246" s="5">
         <v>2044.5</v>
       </c>
-      <c r="B246" s="6">
+      <c r="B246" s="4">
         <v>1832310</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="4">
         <v>2218250</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="4">
         <v>1907580</v>
       </c>
-      <c r="E246" s="6">
+      <c r="E246" s="4">
         <v>1472520</v>
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="7">
+      <c r="A247" s="5">
         <v>2044.625</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="4">
         <v>1835620</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="4">
         <v>2222430</v>
       </c>
-      <c r="D247" s="6">
+      <c r="D247" s="4">
         <v>1909130</v>
       </c>
-      <c r="E247" s="6">
+      <c r="E247" s="4">
         <v>1475560</v>
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="7">
+      <c r="A248" s="5">
         <v>2044.75</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="4">
         <v>1838930</v>
       </c>
-      <c r="C248" s="6">
+      <c r="C248" s="4">
         <v>2226620</v>
       </c>
-      <c r="D248" s="6">
+      <c r="D248" s="4">
         <v>1910700</v>
       </c>
-      <c r="E248" s="6">
+      <c r="E248" s="4">
         <v>1478590</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="7">
+      <c r="A249" s="5">
         <v>2044.875</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="4">
         <v>1842240</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="4">
         <v>2230810</v>
       </c>
-      <c r="D249" s="6">
+      <c r="D249" s="4">
         <v>1912280</v>
       </c>
-      <c r="E249" s="6">
+      <c r="E249" s="4">
         <v>1481620</v>
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="7">
+      <c r="A250" s="5">
         <v>2045</v>
       </c>
-      <c r="B250" s="6">
+      <c r="B250" s="4">
         <v>1845560</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="4">
         <v>2235000</v>
       </c>
-      <c r="D250" s="6">
+      <c r="D250" s="4">
         <v>1913870</v>
       </c>
-      <c r="E250" s="6">
+      <c r="E250" s="4">
         <v>1484650</v>
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="7">
+      <c r="A251" s="5">
         <v>2045.125</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="4">
         <v>1848880</v>
       </c>
-      <c r="C251" s="6">
+      <c r="C251" s="4">
         <v>2239210</v>
       </c>
-      <c r="D251" s="6">
+      <c r="D251" s="4">
         <v>1915480</v>
       </c>
-      <c r="E251" s="6">
+      <c r="E251" s="4">
         <v>1487680</v>
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="7">
+      <c r="A252" s="5">
         <v>2045.25</v>
       </c>
-      <c r="B252" s="6">
+      <c r="B252" s="4">
         <v>1852200</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="4">
         <v>2243420</v>
       </c>
-      <c r="D252" s="6">
+      <c r="D252" s="4">
         <v>1917100</v>
       </c>
-      <c r="E252" s="6">
+      <c r="E252" s="4">
         <v>1490700</v>
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="7">
+      <c r="A253" s="5">
         <v>2045.375</v>
       </c>
-      <c r="B253" s="6">
+      <c r="B253" s="4">
         <v>1855520</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="4">
         <v>2247640</v>
       </c>
-      <c r="D253" s="6">
+      <c r="D253" s="4">
         <v>1918730</v>
       </c>
-      <c r="E253" s="6">
+      <c r="E253" s="4">
         <v>1493720</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="7">
+      <c r="A254" s="5">
         <v>2045.5</v>
       </c>
-      <c r="B254" s="6">
+      <c r="B254" s="4">
         <v>1858850</v>
       </c>
-      <c r="C254" s="6">
+      <c r="C254" s="4">
         <v>2251860</v>
       </c>
-      <c r="D254" s="6">
+      <c r="D254" s="4">
         <v>1920370</v>
       </c>
-      <c r="E254" s="6">
+      <c r="E254" s="4">
         <v>1496740</v>
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="7">
+      <c r="A255" s="5">
         <v>2045.625</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B255" s="4">
         <v>1862180</v>
       </c>
-      <c r="C255" s="6">
+      <c r="C255" s="4">
         <v>2256090</v>
       </c>
-      <c r="D255" s="6">
+      <c r="D255" s="4">
         <v>1922030</v>
       </c>
-      <c r="E255" s="6">
+      <c r="E255" s="4">
         <v>1499750</v>
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="7">
+      <c r="A256" s="5">
         <v>2045.75</v>
       </c>
-      <c r="B256" s="6">
+      <c r="B256" s="4">
         <v>1865510</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="4">
         <v>2260330</v>
       </c>
-      <c r="D256" s="6">
+      <c r="D256" s="4">
         <v>1923700</v>
       </c>
-      <c r="E256" s="6">
+      <c r="E256" s="4">
         <v>1502760</v>
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="7">
+      <c r="A257" s="5">
         <v>2045.875</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B257" s="4">
         <v>1868840</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="4">
         <v>2264580</v>
       </c>
-      <c r="D257" s="6">
+      <c r="D257" s="4">
         <v>1925380</v>
       </c>
-      <c r="E257" s="6">
+      <c r="E257" s="4">
         <v>1505770</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="7">
+      <c r="A258" s="5">
         <v>2046</v>
       </c>
-      <c r="B258" s="6">
+      <c r="B258" s="4">
         <v>1872180</v>
       </c>
-      <c r="C258" s="6">
+      <c r="C258" s="4">
         <v>2268830</v>
       </c>
-      <c r="D258" s="6">
+      <c r="D258" s="4">
         <v>1927080</v>
       </c>
-      <c r="E258" s="6">
+      <c r="E258" s="4">
         <v>1508780</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="7">
+      <c r="A259" s="5">
         <v>2046.125</v>
       </c>
-      <c r="B259" s="6">
+      <c r="B259" s="4">
         <v>1875520</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="4">
         <v>2273080</v>
       </c>
-      <c r="D259" s="6">
+      <c r="D259" s="4">
         <v>1928790</v>
       </c>
-      <c r="E259" s="6">
+      <c r="E259" s="4">
         <v>1511790</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="7">
+      <c r="A260" s="5">
         <v>2046.25</v>
       </c>
-      <c r="B260" s="6">
+      <c r="B260" s="4">
         <v>1878870</v>
       </c>
-      <c r="C260" s="6">
+      <c r="C260" s="4">
         <v>2277350</v>
       </c>
-      <c r="D260" s="6">
+      <c r="D260" s="4">
         <v>1930510</v>
       </c>
-      <c r="E260" s="6">
+      <c r="E260" s="4">
         <v>1514790</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="7">
+      <c r="A261" s="5">
         <v>2046.375</v>
       </c>
-      <c r="B261" s="6">
+      <c r="B261" s="4">
         <v>1882210</v>
       </c>
-      <c r="C261" s="6">
+      <c r="C261" s="4">
         <v>2281620</v>
       </c>
-      <c r="D261" s="6">
+      <c r="D261" s="4">
         <v>1932240</v>
       </c>
-      <c r="E261" s="6">
+      <c r="E261" s="4">
         <v>1517790</v>
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="7">
+      <c r="A262" s="5">
         <v>2046.5</v>
       </c>
-      <c r="B262" s="6">
+      <c r="B262" s="4">
         <v>1885560</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="4">
         <v>2285900</v>
       </c>
-      <c r="D262" s="6">
+      <c r="D262" s="4">
         <v>1933990</v>
       </c>
-      <c r="E262" s="6">
+      <c r="E262" s="4">
         <v>1520790</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="7">
+      <c r="A263" s="5">
         <v>2046.625</v>
       </c>
-      <c r="B263" s="6">
+      <c r="B263" s="4">
         <v>1888920</v>
       </c>
-      <c r="C263" s="6">
+      <c r="C263" s="4">
         <v>2290180</v>
       </c>
-      <c r="D263" s="6">
+      <c r="D263" s="4">
         <v>1935750</v>
       </c>
-      <c r="E263" s="6">
+      <c r="E263" s="4">
         <v>1523790</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="7">
+      <c r="A264" s="5">
         <v>2046.75</v>
       </c>
-      <c r="B264" s="6">
+      <c r="B264" s="4">
         <v>1892270</v>
       </c>
-      <c r="C264" s="6">
+      <c r="C264" s="4">
         <v>2294470</v>
       </c>
-      <c r="D264" s="6">
+      <c r="D264" s="4">
         <v>1937520</v>
       </c>
-      <c r="E264" s="6">
+      <c r="E264" s="4">
         <v>1526780</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="7">
+      <c r="A265" s="5">
         <v>2046.875</v>
       </c>
-      <c r="B265" s="6">
+      <c r="B265" s="4">
         <v>1895630</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="4">
         <v>2298770</v>
       </c>
-      <c r="D265" s="6">
+      <c r="D265" s="4">
         <v>1939310</v>
       </c>
-      <c r="E265" s="6">
+      <c r="E265" s="4">
         <v>1529780</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="7">
+      <c r="A266" s="5">
         <v>2047</v>
       </c>
-      <c r="B266" s="6">
+      <c r="B266" s="4">
         <v>1898990</v>
       </c>
-      <c r="C266" s="6">
+      <c r="C266" s="4">
         <v>2303070</v>
       </c>
-      <c r="D266" s="6">
+      <c r="D266" s="4">
         <v>1941100</v>
       </c>
-      <c r="E266" s="6">
+      <c r="E266" s="4">
         <v>1532770</v>
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="7">
+      <c r="A267" s="5">
         <v>2047.125</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B267" s="4">
         <v>1902360</v>
       </c>
-      <c r="C267" s="6">
+      <c r="C267" s="4">
         <v>2307380</v>
       </c>
-      <c r="D267" s="6">
+      <c r="D267" s="4">
         <v>1942910</v>
       </c>
-      <c r="E267" s="6">
+      <c r="E267" s="4">
         <v>1535760</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="7">
+      <c r="A268" s="5">
         <v>2047.25</v>
       </c>
-      <c r="B268" s="6">
+      <c r="B268" s="4">
         <v>1905720</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="4">
         <v>2311690</v>
       </c>
-      <c r="D268" s="6">
+      <c r="D268" s="4">
         <v>1944740</v>
       </c>
-      <c r="E268" s="6">
+      <c r="E268" s="4">
         <v>1538740</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="7">
+      <c r="A269" s="5">
         <v>2047.375</v>
       </c>
-      <c r="B269" s="6">
+      <c r="B269" s="4">
         <v>1909100</v>
       </c>
-      <c r="C269" s="6">
+      <c r="C269" s="4">
         <v>2316020</v>
       </c>
-      <c r="D269" s="6">
+      <c r="D269" s="4">
         <v>1946570</v>
       </c>
-      <c r="E269" s="6">
+      <c r="E269" s="4">
         <v>1541730</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="7">
+      <c r="A270" s="5">
         <v>2047.5</v>
       </c>
-      <c r="B270" s="6">
+      <c r="B270" s="4">
         <v>1912470</v>
       </c>
-      <c r="C270" s="6">
+      <c r="C270" s="4">
         <v>2320350</v>
       </c>
-      <c r="D270" s="6">
+      <c r="D270" s="4">
         <v>1948420</v>
       </c>
-      <c r="E270" s="6">
+      <c r="E270" s="4">
         <v>1544710</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="7">
+      <c r="A271" s="5">
         <v>2047.625</v>
       </c>
-      <c r="B271" s="6">
+      <c r="B271" s="4">
         <v>1915850</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="4">
         <v>2324680</v>
       </c>
-      <c r="D271" s="6">
+      <c r="D271" s="4">
         <v>1950280</v>
       </c>
-      <c r="E271" s="6">
+      <c r="E271" s="4">
         <v>1547690</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="7">
+      <c r="A272" s="5">
         <v>2047.75</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B272" s="4">
         <v>1919230</v>
       </c>
-      <c r="C272" s="6">
+      <c r="C272" s="4">
         <v>2329020</v>
       </c>
-      <c r="D272" s="6">
+      <c r="D272" s="4">
         <v>1952150</v>
       </c>
-      <c r="E272" s="6">
+      <c r="E272" s="4">
         <v>1550670</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="7">
+      <c r="A273" s="5">
         <v>2047.875</v>
       </c>
-      <c r="B273" s="6">
+      <c r="B273" s="4">
         <v>1922610</v>
       </c>
-      <c r="C273" s="6">
+      <c r="C273" s="4">
         <v>2333370</v>
       </c>
-      <c r="D273" s="6">
+      <c r="D273" s="4">
         <v>1954040</v>
       </c>
-      <c r="E273" s="6">
+      <c r="E273" s="4">
         <v>1553650</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="7">
+      <c r="A274" s="5">
         <v>2048</v>
       </c>
-      <c r="B274" s="6">
+      <c r="B274" s="4">
         <v>1926000</v>
       </c>
-      <c r="C274" s="6">
+      <c r="C274" s="4">
         <v>2337730</v>
       </c>
-      <c r="D274" s="6">
+      <c r="D274" s="4">
         <v>1955930</v>
       </c>
-      <c r="E274" s="6">
+      <c r="E274" s="4">
         <v>1556630</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="7">
+      <c r="A275" s="5">
         <v>2048.125</v>
       </c>
-      <c r="B275" s="6">
+      <c r="B275" s="4">
         <v>1929390</v>
       </c>
-      <c r="C275" s="6">
+      <c r="C275" s="4">
         <v>2342090</v>
       </c>
-      <c r="D275" s="6">
+      <c r="D275" s="4">
         <v>1957840</v>
       </c>
-      <c r="E275" s="6">
+      <c r="E275" s="4">
         <v>1559610</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="7">
+      <c r="A276" s="5">
         <v>2048.25</v>
       </c>
-      <c r="B276" s="6">
+      <c r="B276" s="4">
         <v>1932780</v>
       </c>
-      <c r="C276" s="6">
+      <c r="C276" s="4">
         <v>2346460</v>
       </c>
-      <c r="D276" s="6">
+      <c r="D276" s="4">
         <v>1959760</v>
       </c>
-      <c r="E276" s="6">
+      <c r="E276" s="4">
         <v>1562580</v>
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="7">
+      <c r="A277" s="5">
         <v>2048.375</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B277" s="4">
         <v>1936180</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="4">
         <v>2350830</v>
       </c>
-      <c r="D277" s="6">
+      <c r="D277" s="4">
         <v>1961700</v>
       </c>
-      <c r="E277" s="6">
+      <c r="E277" s="4">
         <v>1565550</v>
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="7">
+      <c r="A278" s="5">
         <v>2048.5</v>
       </c>
-      <c r="B278" s="6">
+      <c r="B278" s="4">
         <v>1939580</v>
       </c>
-      <c r="C278" s="6">
+      <c r="C278" s="4">
         <v>2355210</v>
       </c>
-      <c r="D278" s="6">
+      <c r="D278" s="4">
         <v>1963640</v>
       </c>
-      <c r="E278" s="6">
+      <c r="E278" s="4">
         <v>1568520</v>
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="7">
+      <c r="A279" s="5">
         <v>2048.625</v>
       </c>
-      <c r="B279" s="6">
+      <c r="B279" s="4">
         <v>1942990</v>
       </c>
-      <c r="C279" s="6">
+      <c r="C279" s="4">
         <v>2359600</v>
       </c>
-      <c r="D279" s="6">
+      <c r="D279" s="4">
         <v>1965600</v>
       </c>
-      <c r="E279" s="6">
+      <c r="E279" s="4">
         <v>1571490</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="7">
+      <c r="A280" s="5">
         <v>2048.75</v>
       </c>
-      <c r="B280" s="6">
+      <c r="B280" s="4">
         <v>1946390</v>
       </c>
-      <c r="C280" s="6">
+      <c r="C280" s="4">
         <v>2363990</v>
       </c>
-      <c r="D280" s="6">
+      <c r="D280" s="4">
         <v>1967570</v>
       </c>
-      <c r="E280" s="6">
+      <c r="E280" s="4">
         <v>1574460</v>
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="7">
+      <c r="A281" s="5">
         <v>2048.875</v>
       </c>
-      <c r="B281" s="6">
+      <c r="B281" s="4">
         <v>1949810</v>
       </c>
-      <c r="C281" s="6">
+      <c r="C281" s="4">
         <v>2368390</v>
       </c>
-      <c r="D281" s="6">
+      <c r="D281" s="4">
         <v>1969550</v>
       </c>
-      <c r="E281" s="6">
+      <c r="E281" s="4">
         <v>1577430</v>
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="7">
+      <c r="A282" s="5">
         <v>2049</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="4">
         <v>1953220</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="4">
         <v>2372800</v>
       </c>
-      <c r="D282" s="6">
+      <c r="D282" s="4">
         <v>1971550</v>
       </c>
-      <c r="E282" s="6">
+      <c r="E282" s="4">
         <v>1580390</v>
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="7">
+      <c r="A283" s="5">
         <v>2049.125</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B283" s="4">
         <v>1956640</v>
       </c>
-      <c r="C283" s="6">
+      <c r="C283" s="4">
         <v>2377210</v>
       </c>
-      <c r="D283" s="6">
+      <c r="D283" s="4">
         <v>1973550</v>
       </c>
-      <c r="E283" s="6">
+      <c r="E283" s="4">
         <v>1583360</v>
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="7">
+      <c r="A284" s="5">
         <v>2049.25</v>
       </c>
-      <c r="B284" s="6">
+      <c r="B284" s="4">
         <v>1960060</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C284" s="4">
         <v>2381630</v>
       </c>
-      <c r="D284" s="6">
+      <c r="D284" s="4">
         <v>1975570</v>
       </c>
-      <c r="E284" s="6">
+      <c r="E284" s="4">
         <v>1586320</v>
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="7">
+      <c r="A285" s="5">
         <v>2049.375</v>
       </c>
-      <c r="B285" s="6">
+      <c r="B285" s="4">
         <v>1963490</v>
       </c>
-      <c r="C285" s="6">
+      <c r="C285" s="4">
         <v>2386060</v>
       </c>
-      <c r="D285" s="6">
+      <c r="D285" s="4">
         <v>1977600</v>
       </c>
-      <c r="E285" s="6">
+      <c r="E285" s="4">
         <v>1589280</v>
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="7">
+      <c r="A286" s="5">
         <v>2049.5</v>
       </c>
-      <c r="B286" s="6">
+      <c r="B286" s="4">
         <v>1966910</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="4">
         <v>2390490</v>
       </c>
-      <c r="D286" s="6">
+      <c r="D286" s="4">
         <v>1979640</v>
       </c>
-      <c r="E286" s="6">
+      <c r="E286" s="4">
         <v>1592240</v>
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="7">
+      <c r="A287" s="5">
         <v>2049.625</v>
       </c>
-      <c r="B287" s="6">
+      <c r="B287" s="4">
         <v>1970350</v>
       </c>
-      <c r="C287" s="6">
+      <c r="C287" s="4">
         <v>2394930</v>
       </c>
-      <c r="D287" s="6">
+      <c r="D287" s="4">
         <v>1981700</v>
       </c>
-      <c r="E287" s="6">
+      <c r="E287" s="4">
         <v>1595200</v>
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="7">
+      <c r="A288" s="5">
         <v>2049.75</v>
       </c>
-      <c r="B288" s="6">
+      <c r="B288" s="4">
         <v>1973780</v>
       </c>
-      <c r="C288" s="6">
+      <c r="C288" s="4">
         <v>2399370</v>
       </c>
-      <c r="D288" s="6">
+      <c r="D288" s="4">
         <v>1983760</v>
       </c>
-      <c r="E288" s="6">
+      <c r="E288" s="4">
         <v>1598160</v>
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="7">
+      <c r="A289" s="5">
         <v>2049.875</v>
       </c>
-      <c r="B289" s="6">
+      <c r="B289" s="4">
         <v>1977220</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C289" s="4">
         <v>2403820</v>
       </c>
-      <c r="D289" s="6">
+      <c r="D289" s="4">
         <v>1985840</v>
       </c>
-      <c r="E289" s="6">
+      <c r="E289" s="4">
         <v>1601120</v>
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="7">
+      <c r="A290" s="5">
         <v>2050</v>
       </c>
-      <c r="B290" s="6">
+      <c r="B290" s="4">
         <v>1980660</v>
       </c>
-      <c r="C290" s="6">
+      <c r="C290" s="4">
         <v>2408280</v>
       </c>
-      <c r="D290" s="6">
+      <c r="D290" s="4">
         <v>1987930</v>
       </c>
-      <c r="E290" s="6">
+      <c r="E290" s="4">
         <v>1604080</v>
       </c>
     </row>
